--- a/Music/Guitar/P4/Chord Pedals.xlsx
+++ b/Music/Guitar/P4/Chord Pedals.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{11AE6A81-B48C-FF41-92EE-1803B3937B5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{23E5E401-298A-854E-A9CF-E60623E6CFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1-4" sheetId="1" r:id="rId1"/>
-    <sheet name="1-5" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Centre" sheetId="5" r:id="rId1"/>
+    <sheet name="1-4" sheetId="1" r:id="rId2"/>
+    <sheet name="1-5" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -22,6 +23,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="7">
   <si>
     <t>x</t>
   </si>
@@ -44,6 +46,12 @@
   </si>
   <si>
     <t>+46</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -426,11 +434,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326D96CC-BF6F-8E4A-9D2F-D7CA64C5CB8A}">
+  <dimension ref="C3:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.6875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="2.6875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36943FB8-74CB-5742-933F-2A0678886C3A}">
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.95703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -548,7 +645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D754A1AC-E6E7-2B4E-B544-826EB59CBBBD}">
   <dimension ref="B1:K20"/>
   <sheetViews>
@@ -672,11 +769,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6848C20-B1CF-1B4B-9336-E2B91E770D88}">
   <dimension ref="B1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
@@ -1188,7 +1285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2023BA3-19D0-434E-8A91-A3E76F8E1716}">
   <dimension ref="A1:I9"/>
   <sheetViews>
